--- a/_site/Data/RemoteWorkModule.xlsx
+++ b/_site/Data/RemoteWorkModule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6E4617-7E71-0948-BCC4-98F0144C67AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAD31BD-18AD-354C-91B0-E132A6CC8874}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{825A24E1-B98B-584A-AE69-E3DBC0DE4053}"/>
+    <workbookView xWindow="37080" yWindow="5620" windowWidth="28800" windowHeight="17540" xr2:uid="{825A24E1-B98B-584A-AE69-E3DBC0DE4053}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Question</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>Occurrence</t>
-  </si>
-  <si>
-    <t>Frequency</t>
   </si>
   <si>
     <t>For your main source of income (i.e. your primary job), how often did you work remotely PRIOR TO the coronavirus (COVID-19) pandemic?</t>
@@ -74,7 +71,17 @@
     <t>PwC US Remote Work Survey</t>
   </si>
   <si>
-    <t xml:space="preserve">Rapid Modified </t>
+    <t>https://www.pwc.com/us/en/library/covid-19/us-remote-work-survey.html</t>
+  </si>
+  <si>
+    <t>Source Link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAPID Modified 
+U.S. Census Bureau Household Pulse Survey - Phase 2 </t>
+  </si>
+  <si>
+    <t>https://www.census.gov/data/experimental-data-products/household-pulse-survey.html</t>
   </si>
 </sst>
 </file>
@@ -119,7 +126,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -139,11 +146,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -463,16 +467,15 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="54.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="26.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="2"/>
+    <col min="2" max="3" width="26.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -486,64 +489,71 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{57D36ADC-A9B7-E748-9BC1-58053AD4359E}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{31E89588-8242-9142-9130-7CBC4774FFF0}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{57D36ADC-A9B7-E748-9BC1-58053AD4359E}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{47DA19F3-F126-CE4F-99CE-CFA7EAB299F8}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{407AE2FD-F9E2-9E4D-87F7-B2BBE392C974}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_site/Data/RemoteWorkModule.xlsx
+++ b/_site/Data/RemoteWorkModule.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4320F90-EA2F-7546-9494-F08782939D2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD7CDEDB-F9F7-B54E-9CEC-AAAE388135D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39660" yWindow="-2440" windowWidth="15960" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8100" yWindow="500" windowWidth="20700" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>Question</t>
   </si>
@@ -34,7 +45,18 @@
     <t>Source Link</t>
   </si>
   <si>
-    <t>Occurrence</t>
+    <t>Dates Used</t>
+  </si>
+  <si>
+    <t>Do you currently work remotely either full or part-time?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o Yes 
+o No  
+o N/A  </t>
+  </si>
+  <si>
+    <t>01/03/2022-01/24/2022</t>
   </si>
   <si>
     <t>For your main source of income (i.e. your primary job), how often did you work remotely PRIOR TO the coronavirus (COVID-19) pandemic?</t>
@@ -64,6 +86,9 @@
     </r>
   </si>
   <si>
+    <t>09/21/2020-09/24/2020 11/17/2020-11/19/2020 12/15/2020-12/17/2020 01/20/2021-01/22/2021 02/17/2021-02/19/2021 03/17/2021-03/20/2021 04/14/2021-04/16/2021 05/12/2021 -05/14/2021 01/03/2022 -01/24/2022</t>
+  </si>
+  <si>
     <t>For your main source of income (i.e. your primary job), how often do you CURRENTLY work remotely?</t>
   </si>
   <si>
@@ -94,14 +119,88 @@
     </r>
   </si>
   <si>
-    <t>25, 33, 37, 41, 45, 49, 53, 57</t>
+    <t xml:space="preserve">09/21/2020-09/24/2020 11/17/2020-11/19/2020 12/15/2020-12/17/2020 01/20/2021-01/22/2021 02/17/2021-02/19/2021 03/17/2021-03/20/2021 04/14/2021-04/16/2021 05/12/2021 -05/14/2021 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why do you currently work remotely? Select all that apply. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▢ My workplace has not required a return to in-person work   
+▢ I chose to work remotely because of concerns about contracting COVID-19  
+▢ I chose to work remotely because of concerns about child care 
+▢ I chose to work remotely because my K-12 child(ren) are not attending in-person school 
+▢ I prefer to work remotely  
+▢ Not Listed (please specify)  </t>
+  </si>
+  <si>
+    <t>Did you return to work in-person since the start of the COVID-19 pandemic and now work remotely again?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Yes
+• No, I never returned to in-person work
+</t>
+  </si>
+  <si>
+    <t>Why did you return to working remotely?</t>
+  </si>
+  <si>
+    <t>Open Ended</t>
+  </si>
+  <si>
+    <t>Do you currently want to work remotely?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o No, I prefer in-person work  (0) 
+o Yes, I am actively seeking a job that will allow me to work remotely  (1) 
+o Yes, I would like my employer to allow me to work remotely  (2) </t>
+  </si>
+  <si>
+    <t>Since the COVID-19 pandemic, has your workplace provided options for flexible work arrangements?</t>
+  </si>
+  <si>
+    <t>• Yes
+• No</t>
+  </si>
+  <si>
+    <t>My workplace has been understanding of my child care needs during the pandemic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o	Very accurate  (5) 
+o	Accurate  (4) 
+o	Somewhat accurate  (3) 
+o	Not very accurate  (2) 
+o	Not at all accurate  (1) </t>
+  </si>
+  <si>
+    <t>Compared to before the pandemic, are your employer's workplace policies:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o	More flexible  (1) 
+o	Less flexible  (2) 
+o	About the same  (3) </t>
+  </si>
+  <si>
+    <t>Compared to before the pandemic, are your workplace policies:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o	More supportive of your child care needs  (1) 
+o	Less supportive of your child care needs  (2) 
+o	About the same  (3) </t>
+  </si>
+  <si>
+    <t>Do you think your workplace is going to continue to offer flexible work arrangements in the future?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o	Yes  (1) 
+o	No  (0) 
+o	Unsure  (2) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -118,6 +217,12 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -145,16 +250,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -162,14 +267,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -177,7 +293,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1340,137 +1463,217 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="54.5" style="1" customWidth="1"/>
-    <col min="2" max="3" width="26.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="54.5" style="2" customWidth="1"/>
+    <col min="2" max="3" width="26.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="119" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="47.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="252">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="252">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="204.75">
+      <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="119" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
+    <row r="6" spans="1:5" ht="236.25">
+      <c r="A6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="4" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>14</v>
-      </c>
+    <row r="7" spans="1:5" ht="63">
+      <c r="A7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="11"/>
     </row>
-    <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+    <row r="8" spans="1:5" ht="31.5">
+      <c r="A8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="11" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+    <row r="9" spans="1:5" ht="126">
+      <c r="A9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="11" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4"/>
+    <row r="10" spans="1:5" ht="31.5">
+      <c r="A10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="11" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+    <row r="11" spans="1:5" ht="78.75">
+      <c r="A11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="11" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+    <row r="12" spans="1:5" ht="47.25">
+      <c r="A12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+    <row r="13" spans="1:5" ht="78.75">
+      <c r="A13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="47.25">
+      <c r="A14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/_site/Data/RemoteWorkModule.xlsx
+++ b/_site/Data/RemoteWorkModule.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjZq0EFy5HMsZ3/3kOjkz+nHiJ8uA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjZY5qDXLK+zS/coW95BfKElsZhMA=="/>
     </ext>
   </extLst>
 </workbook>
@@ -138,7 +138,7 @@
     <t>Why did you return to working remotely?</t>
   </si>
   <si>
-    <t>Open Ended</t>
+    <t>Open ended response</t>
   </si>
   <si>
     <t>Do you currently want to work remotely?</t>
@@ -762,7 +762,7 @@
       <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="5"/>
